--- a/Excel/revenue_excel.xlsx
+++ b/Excel/revenue_excel.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casto\Desktop\Data Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casto\Desktop\Data Analytics\Github Files\WorkCompilation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880C4F23-C328-4A8B-A429-93B70D632C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67A2F2-7795-4129-BD1C-A4191054D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1620" windowWidth="20730" windowHeight="12810" firstSheet="1" activeTab="3" xr2:uid="{0088A8D7-A0FB-4FCF-8756-878BD42F940B}"/>
+    <workbookView xWindow="1155" yWindow="2895" windowWidth="20880" windowHeight="12840" xr2:uid="{0088A8D7-A0FB-4FCF-8756-878BD42F940B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="stable_revenue" sheetId="3" r:id="rId2"/>
     <sheet name="average_stock_price" sheetId="5" r:id="rId3"/>
     <sheet name="combination_chart" sheetId="7" r:id="rId4"/>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -454,7 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -819,7 +818,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Assignment.xlsx]stable_revenue!PivotTable5</c:name>
+    <c:name>[revenue_excel.xlsx]stable_revenue!PivotTable5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1343,7 +1342,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Assignment.xlsx]stable_revenue!PivotTable6</c:name>
+    <c:name>[revenue_excel.xlsx]stable_revenue!PivotTable6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1853,7 +1852,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Assignment.xlsx]average_stock_price!PivotTable8</c:name>
+    <c:name>[revenue_excel.xlsx]average_stock_price!PivotTable8</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2496,7 +2495,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Assignment.xlsx]combination_chart!PivotTable9</c:name>
+    <c:name>[revenue_excel.xlsx]combination_chart!PivotTable9</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -6838,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B1C55-7E9D-4289-B1F6-5A80D0E05FFF}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,10 +6925,10 @@
       <c r="J2" s="6">
         <v>196.2</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>123.2</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>122.7</v>
       </c>
     </row>
@@ -7461,7 +7460,7 @@
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
@@ -7469,7 +7468,7 @@
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -7477,7 +7476,7 @@
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>145.69999999999999</v>
       </c>
     </row>
@@ -7485,7 +7484,7 @@
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>158.4</v>
       </c>
     </row>
@@ -7493,7 +7492,7 @@
       <c r="A8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>311.2</v>
       </c>
     </row>
@@ -7501,7 +7500,7 @@
       <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>546.79999999999995</v>
       </c>
     </row>
@@ -7509,7 +7508,7 @@
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>1032.8</v>
       </c>
     </row>
@@ -7525,7 +7524,7 @@
       <c r="A20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
@@ -7533,7 +7532,7 @@
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>140.30000000000001</v>
       </c>
     </row>
@@ -7541,7 +7540,7 @@
       <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22">
         <v>160.6</v>
       </c>
     </row>
@@ -7549,7 +7548,7 @@
       <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23">
         <v>161.19999999999999</v>
       </c>
     </row>
@@ -7557,7 +7556,7 @@
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24">
         <v>196.2</v>
       </c>
     </row>
@@ -7565,7 +7564,7 @@
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25">
         <v>287.2</v>
       </c>
     </row>
@@ -7573,12 +7572,12 @@
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26">
         <v>1032.5999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7618,10 +7617,10 @@
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>0.8</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>0.8</v>
       </c>
     </row>
@@ -7629,10 +7628,10 @@
       <c r="A5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>52.172499999999999</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>52.625</v>
       </c>
     </row>
@@ -7640,10 +7639,10 @@
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>54.25</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>54.199999999999996</v>
       </c>
     </row>
@@ -7651,10 +7650,10 @@
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>91.082499999999996</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>96.114999999999995</v>
       </c>
     </row>
@@ -7662,10 +7661,10 @@
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>108.4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>100.8</v>
       </c>
     </row>
@@ -7673,10 +7672,10 @@
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>122.7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>123.2</v>
       </c>
     </row>
@@ -7684,10 +7683,10 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>850.19</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>855.52</v>
       </c>
     </row>
@@ -7695,10 +7694,10 @@
       <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>239.97464285714287</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>242.10500000000002</v>
       </c>
     </row>
@@ -7712,7 +7711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324A9D87-4DE2-456F-A9A2-BEB3F56B423C}">
   <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7741,10 +7740,10 @@
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>0.8</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>161.19999999999999</v>
       </c>
     </row>
@@ -7752,10 +7751,10 @@
       <c r="A5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>52.625</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
@@ -7763,10 +7762,10 @@
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>54.199999999999996</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>160.6</v>
       </c>
     </row>
@@ -7774,10 +7773,10 @@
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>96.114999999999995</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>1032.5999999999999</v>
       </c>
     </row>
@@ -7785,10 +7784,10 @@
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>100.8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>140.30000000000001</v>
       </c>
     </row>
@@ -7796,10 +7795,10 @@
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>123.2</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>196.2</v>
       </c>
     </row>
@@ -7807,10 +7806,10 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>855.52</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>287.2</v>
       </c>
     </row>
@@ -7818,10 +7817,10 @@
       <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>242.10500000000002</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>1978.1</v>
       </c>
     </row>
